--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tnfsf13-Tnfrsf1a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tnfsf13-Tnfrsf1a.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5253763333333333</v>
+        <v>1.342908333333333</v>
       </c>
       <c r="H2">
-        <v>1.576129</v>
+        <v>4.028725</v>
       </c>
       <c r="I2">
-        <v>0.08315346361753381</v>
+        <v>0.2879023314891748</v>
       </c>
       <c r="J2">
-        <v>0.08315346361753381</v>
+        <v>0.2879023314891748</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>62.49926866666667</v>
+        <v>47.32925566666668</v>
       </c>
       <c r="N2">
-        <v>187.497806</v>
+        <v>141.987767</v>
       </c>
       <c r="O2">
-        <v>0.3649995688282641</v>
+        <v>0.3408416299313156</v>
       </c>
       <c r="P2">
-        <v>0.3649995688282641</v>
+        <v>0.3408416299313156</v>
       </c>
       <c r="Q2">
-        <v>32.83563660810822</v>
+        <v>63.55885184523056</v>
       </c>
       <c r="R2">
-        <v>295.520729472974</v>
+        <v>572.029666607075</v>
       </c>
       <c r="S2">
-        <v>0.03035097836697659</v>
+        <v>0.09812909992579624</v>
       </c>
       <c r="T2">
-        <v>0.03035097836697659</v>
+        <v>0.09812909992579626</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5253763333333333</v>
+        <v>1.342908333333333</v>
       </c>
       <c r="H3">
-        <v>1.576129</v>
+        <v>4.028725</v>
       </c>
       <c r="I3">
-        <v>0.08315346361753381</v>
+        <v>0.2879023314891748</v>
       </c>
       <c r="J3">
-        <v>0.08315346361753381</v>
+        <v>0.2879023314891748</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>43.71795299999999</v>
+        <v>43.717953</v>
       </c>
       <c r="N3">
         <v>131.153859</v>
       </c>
       <c r="O3">
-        <v>0.2553155314530077</v>
+        <v>0.3148348341399153</v>
       </c>
       <c r="P3">
-        <v>0.2553155314530077</v>
+        <v>0.3148348341399154</v>
       </c>
       <c r="Q3">
-        <v>22.968377847979</v>
+        <v>58.709203399975</v>
       </c>
       <c r="R3">
-        <v>206.715400631811</v>
+        <v>528.382830599775</v>
       </c>
       <c r="S3">
-        <v>0.02123037075566898</v>
+        <v>0.09064168278288924</v>
       </c>
       <c r="T3">
-        <v>0.02123037075566898</v>
+        <v>0.09064168278288927</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5253763333333333</v>
+        <v>1.342908333333333</v>
       </c>
       <c r="H4">
-        <v>1.576129</v>
+        <v>4.028725</v>
       </c>
       <c r="I4">
-        <v>0.08315346361753381</v>
+        <v>0.2879023314891748</v>
       </c>
       <c r="J4">
-        <v>0.08315346361753381</v>
+        <v>0.2879023314891748</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.136526</v>
+        <v>21.09134933333333</v>
       </c>
       <c r="N4">
-        <v>57.409578</v>
+        <v>63.274048</v>
       </c>
       <c r="O4">
-        <v>0.1117584875452494</v>
+        <v>0.1518893501062827</v>
       </c>
       <c r="P4">
-        <v>0.1117584875452494</v>
+        <v>0.1518893501062827</v>
       </c>
       <c r="Q4">
-        <v>10.053877862618</v>
+        <v>28.32374878097777</v>
       </c>
       <c r="R4">
-        <v>90.48490076356201</v>
+        <v>254.9137390288</v>
       </c>
       <c r="S4">
-        <v>0.009293105328044504</v>
+        <v>0.04372929802397433</v>
       </c>
       <c r="T4">
-        <v>0.009293105328044504</v>
+        <v>0.04372929802397434</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5253763333333333</v>
+        <v>1.342908333333333</v>
       </c>
       <c r="H5">
-        <v>1.576129</v>
+        <v>4.028725</v>
       </c>
       <c r="I5">
-        <v>0.08315346361753381</v>
+        <v>0.2879023314891748</v>
       </c>
       <c r="J5">
-        <v>0.08315346361753381</v>
+        <v>0.2879023314891748</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>45.87732766666667</v>
+        <v>26.72140366666666</v>
       </c>
       <c r="N5">
-        <v>137.631983</v>
+        <v>80.16421099999999</v>
       </c>
       <c r="O5">
-        <v>0.2679264121734788</v>
+        <v>0.1924341858224863</v>
       </c>
       <c r="P5">
-        <v>0.2679264121734788</v>
+        <v>0.1924341858224864</v>
       </c>
       <c r="Q5">
-        <v>24.10286219264523</v>
+        <v>35.88439566233055</v>
       </c>
       <c r="R5">
-        <v>216.925759733807</v>
+        <v>322.959560960975</v>
       </c>
       <c r="S5">
-        <v>0.02227900916684374</v>
+        <v>0.05540225075651491</v>
       </c>
       <c r="T5">
-        <v>0.02227900916684374</v>
+        <v>0.05540225075651493</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.4963216666666667</v>
+        <v>0.4963216666666666</v>
       </c>
       <c r="H6">
         <v>1.488965</v>
       </c>
       <c r="I6">
-        <v>0.07855486254950023</v>
+        <v>0.1064050028249084</v>
       </c>
       <c r="J6">
-        <v>0.07855486254950023</v>
+        <v>0.1064050028249084</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>62.49926866666667</v>
+        <v>47.32925566666668</v>
       </c>
       <c r="N6">
-        <v>187.497806</v>
+        <v>141.987767</v>
       </c>
       <c r="O6">
-        <v>0.3649995688282641</v>
+        <v>0.3408416299313156</v>
       </c>
       <c r="P6">
-        <v>0.3649995688282641</v>
+        <v>0.3408416299313156</v>
       </c>
       <c r="Q6">
-        <v>31.01974119008779</v>
+        <v>23.49053505457278</v>
       </c>
       <c r="R6">
-        <v>279.17767071079</v>
+        <v>211.414815491155</v>
       </c>
       <c r="S6">
-        <v>0.02867249095993113</v>
+        <v>0.03626725459568802</v>
       </c>
       <c r="T6">
-        <v>0.02867249095993114</v>
+        <v>0.03626725459568803</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.4963216666666667</v>
+        <v>0.4963216666666666</v>
       </c>
       <c r="H7">
         <v>1.488965</v>
       </c>
       <c r="I7">
-        <v>0.07855486254950023</v>
+        <v>0.1064050028249084</v>
       </c>
       <c r="J7">
-        <v>0.07855486254950023</v>
+        <v>0.1064050028249084</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,16 +865,16 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>43.71795299999999</v>
+        <v>43.717953</v>
       </c>
       <c r="N7">
         <v>131.153859</v>
       </c>
       <c r="O7">
-        <v>0.2553155314530077</v>
+        <v>0.3148348341399153</v>
       </c>
       <c r="P7">
-        <v>0.2553155314530077</v>
+        <v>0.3148348341399154</v>
       </c>
       <c r="Q7">
         <v>21.698167296215</v>
@@ -883,10 +883,10 @@
         <v>195.283505665935</v>
       </c>
       <c r="S7">
-        <v>0.02005627648004362</v>
+        <v>0.03350000141603725</v>
       </c>
       <c r="T7">
-        <v>0.02005627648004362</v>
+        <v>0.03350000141603726</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.4963216666666667</v>
+        <v>0.4963216666666666</v>
       </c>
       <c r="H8">
         <v>1.488965</v>
       </c>
       <c r="I8">
-        <v>0.07855486254950023</v>
+        <v>0.1064050028249084</v>
       </c>
       <c r="J8">
-        <v>0.07855486254950023</v>
+        <v>0.1064050028249084</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.136526</v>
+        <v>21.09134933333333</v>
       </c>
       <c r="N8">
-        <v>57.409578</v>
+        <v>63.274048</v>
       </c>
       <c r="O8">
-        <v>0.1117584875452494</v>
+        <v>0.1518893501062827</v>
       </c>
       <c r="P8">
-        <v>0.1117584875452494</v>
+        <v>0.1518893501062827</v>
       </c>
       <c r="Q8">
-        <v>9.497872478530001</v>
+        <v>10.46809365336889</v>
       </c>
       <c r="R8">
-        <v>85.48085230677</v>
+        <v>94.21284288032</v>
       </c>
       <c r="S8">
-        <v>0.008779172627857101</v>
+        <v>0.01616178672713251</v>
       </c>
       <c r="T8">
-        <v>0.008779172627857101</v>
+        <v>0.01616178672713251</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.4963216666666667</v>
+        <v>0.4963216666666666</v>
       </c>
       <c r="H9">
         <v>1.488965</v>
       </c>
       <c r="I9">
-        <v>0.07855486254950023</v>
+        <v>0.1064050028249084</v>
       </c>
       <c r="J9">
-        <v>0.07855486254950023</v>
+        <v>0.1064050028249084</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>45.87732766666667</v>
+        <v>26.72140366666666</v>
       </c>
       <c r="N9">
-        <v>137.631983</v>
+        <v>80.16421099999999</v>
       </c>
       <c r="O9">
-        <v>0.2679264121734788</v>
+        <v>0.1924341858224863</v>
       </c>
       <c r="P9">
-        <v>0.2679264121734788</v>
+        <v>0.1924341858224864</v>
       </c>
       <c r="Q9">
-        <v>22.76991172973278</v>
+        <v>13.26241160351277</v>
       </c>
       <c r="R9">
-        <v>204.929205567595</v>
+        <v>119.361704431615</v>
       </c>
       <c r="S9">
-        <v>0.02104692248166837</v>
+        <v>0.02047596008605061</v>
       </c>
       <c r="T9">
-        <v>0.02104692248166837</v>
+        <v>0.02047596008605061</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.2246166666666667</v>
+        <v>0.1501973333333333</v>
       </c>
       <c r="H10">
-        <v>0.6738499999999999</v>
+        <v>0.450592</v>
       </c>
       <c r="I10">
-        <v>0.03555099960642508</v>
+        <v>0.03220038283833477</v>
       </c>
       <c r="J10">
-        <v>0.03555099960642508</v>
+        <v>0.03220038283833477</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>62.49926866666667</v>
+        <v>47.32925566666668</v>
       </c>
       <c r="N10">
-        <v>187.497806</v>
+        <v>141.987767</v>
       </c>
       <c r="O10">
-        <v>0.3649995688282641</v>
+        <v>0.3408416299313156</v>
       </c>
       <c r="P10">
-        <v>0.3649995688282641</v>
+        <v>0.3408416299313156</v>
       </c>
       <c r="Q10">
-        <v>14.03837739701111</v>
+        <v>7.10872798978489</v>
       </c>
       <c r="R10">
-        <v>126.3453965731</v>
+        <v>63.97855190806401</v>
       </c>
       <c r="S10">
-        <v>0.01297609952775894</v>
+        <v>0.01097523097103038</v>
       </c>
       <c r="T10">
-        <v>0.01297609952775894</v>
+        <v>0.01097523097103039</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.2246166666666667</v>
+        <v>0.1501973333333333</v>
       </c>
       <c r="H11">
-        <v>0.6738499999999999</v>
+        <v>0.450592</v>
       </c>
       <c r="I11">
-        <v>0.03555099960642508</v>
+        <v>0.03220038283833477</v>
       </c>
       <c r="J11">
-        <v>0.03555099960642508</v>
+        <v>0.03220038283833477</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>43.71795299999999</v>
+        <v>43.717953</v>
       </c>
       <c r="N11">
         <v>131.153859</v>
       </c>
       <c r="O11">
-        <v>0.2553155314530077</v>
+        <v>0.3148348341399153</v>
       </c>
       <c r="P11">
-        <v>0.2553155314530077</v>
+        <v>0.3148348341399154</v>
       </c>
       <c r="Q11">
-        <v>9.819780876349999</v>
+        <v>6.566319959392</v>
       </c>
       <c r="R11">
-        <v>88.37802788714998</v>
+        <v>59.096879634528</v>
       </c>
       <c r="S11">
-        <v>0.009076722358200085</v>
+        <v>0.0101378021901489</v>
       </c>
       <c r="T11">
-        <v>0.009076722358200085</v>
+        <v>0.0101378021901489</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.2246166666666667</v>
+        <v>0.1501973333333333</v>
       </c>
       <c r="H12">
-        <v>0.6738499999999999</v>
+        <v>0.450592</v>
       </c>
       <c r="I12">
-        <v>0.03555099960642508</v>
+        <v>0.03220038283833477</v>
       </c>
       <c r="J12">
-        <v>0.03555099960642508</v>
+        <v>0.03220038283833477</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>19.136526</v>
+        <v>21.09134933333333</v>
       </c>
       <c r="N12">
-        <v>57.409578</v>
+        <v>63.274048</v>
       </c>
       <c r="O12">
-        <v>0.1117584875452494</v>
+        <v>0.1518893501062827</v>
       </c>
       <c r="P12">
-        <v>0.1117584875452494</v>
+        <v>0.1518893501062827</v>
       </c>
       <c r="Q12">
-        <v>4.2983826817</v>
+        <v>3.167864426268444</v>
       </c>
       <c r="R12">
-        <v>38.6854441353</v>
+        <v>28.510779836416</v>
       </c>
       <c r="S12">
-        <v>0.003973125946735824</v>
+        <v>0.004890895222488167</v>
       </c>
       <c r="T12">
-        <v>0.003973125946735824</v>
+        <v>0.004890895222488168</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.2246166666666667</v>
+        <v>0.1501973333333333</v>
       </c>
       <c r="H13">
-        <v>0.6738499999999999</v>
+        <v>0.450592</v>
       </c>
       <c r="I13">
-        <v>0.03555099960642508</v>
+        <v>0.03220038283833477</v>
       </c>
       <c r="J13">
-        <v>0.03555099960642508</v>
+        <v>0.03220038283833477</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>45.87732766666667</v>
+        <v>26.72140366666666</v>
       </c>
       <c r="N13">
-        <v>137.631983</v>
+        <v>80.16421099999999</v>
       </c>
       <c r="O13">
-        <v>0.2679264121734788</v>
+        <v>0.1924341858224863</v>
       </c>
       <c r="P13">
-        <v>0.2679264121734788</v>
+        <v>0.1924341858224864</v>
       </c>
       <c r="Q13">
-        <v>10.30481241606111</v>
+        <v>4.013483573656888</v>
       </c>
       <c r="R13">
-        <v>92.74331174455001</v>
+        <v>36.121352162912</v>
       </c>
       <c r="S13">
-        <v>0.009525051773730229</v>
+        <v>0.006196454454667312</v>
       </c>
       <c r="T13">
-        <v>0.009525051773730229</v>
+        <v>0.006196454454667314</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.071838666666667</v>
+        <v>2.675030666666667</v>
       </c>
       <c r="H14">
-        <v>15.215516</v>
+        <v>8.025092000000001</v>
       </c>
       <c r="I14">
-        <v>0.8027406742265409</v>
+        <v>0.573492282847582</v>
       </c>
       <c r="J14">
-        <v>0.8027406742265409</v>
+        <v>0.573492282847582</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>62.49926866666667</v>
+        <v>47.32925566666668</v>
       </c>
       <c r="N14">
-        <v>187.497806</v>
+        <v>141.987767</v>
       </c>
       <c r="O14">
-        <v>0.3649995688282641</v>
+        <v>0.3408416299313156</v>
       </c>
       <c r="P14">
-        <v>0.3649995688282641</v>
+        <v>0.3408416299313156</v>
       </c>
       <c r="Q14">
-        <v>316.9862074619885</v>
+        <v>126.6072103388405</v>
       </c>
       <c r="R14">
-        <v>2852.875867157897</v>
+        <v>1139.464893049564</v>
       </c>
       <c r="S14">
-        <v>0.2929999999735974</v>
+        <v>0.1954700444388009</v>
       </c>
       <c r="T14">
-        <v>0.2929999999735975</v>
+        <v>0.1954700444388009</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.071838666666667</v>
+        <v>2.675030666666667</v>
       </c>
       <c r="H15">
-        <v>15.215516</v>
+        <v>8.025092000000001</v>
       </c>
       <c r="I15">
-        <v>0.8027406742265409</v>
+        <v>0.573492282847582</v>
       </c>
       <c r="J15">
-        <v>0.8027406742265409</v>
+        <v>0.573492282847582</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>43.71795299999999</v>
+        <v>43.717953</v>
       </c>
       <c r="N15">
         <v>131.153859</v>
       </c>
       <c r="O15">
-        <v>0.2553155314530077</v>
+        <v>0.3148348341399153</v>
       </c>
       <c r="P15">
-        <v>0.2553155314530077</v>
+        <v>0.3148348341399154</v>
       </c>
       <c r="Q15">
-        <v>221.730404452916</v>
+        <v>116.946864958892</v>
       </c>
       <c r="R15">
-        <v>1995.573640076244</v>
+        <v>1052.521784630028</v>
       </c>
       <c r="S15">
-        <v>0.204952161859095</v>
+        <v>0.1805553477508398</v>
       </c>
       <c r="T15">
-        <v>0.204952161859095</v>
+        <v>0.1805553477508399</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.071838666666667</v>
+        <v>2.675030666666667</v>
       </c>
       <c r="H16">
-        <v>15.215516</v>
+        <v>8.025092000000001</v>
       </c>
       <c r="I16">
-        <v>0.8027406742265409</v>
+        <v>0.573492282847582</v>
       </c>
       <c r="J16">
-        <v>0.8027406742265409</v>
+        <v>0.573492282847582</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>19.136526</v>
+        <v>21.09134933333333</v>
       </c>
       <c r="N16">
-        <v>57.409578</v>
+        <v>63.274048</v>
       </c>
       <c r="O16">
-        <v>0.1117584875452494</v>
+        <v>0.1518893501062827</v>
       </c>
       <c r="P16">
-        <v>0.1117584875452494</v>
+        <v>0.1518893501062827</v>
       </c>
       <c r="Q16">
-        <v>97.05737251247201</v>
+        <v>56.42000626804622</v>
       </c>
       <c r="R16">
-        <v>873.5163526122481</v>
+        <v>507.7800564124161</v>
       </c>
       <c r="S16">
-        <v>0.089713083642612</v>
+        <v>0.0871073701326877</v>
       </c>
       <c r="T16">
-        <v>0.089713083642612</v>
+        <v>0.08710737013268771</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.071838666666667</v>
+        <v>2.675030666666667</v>
       </c>
       <c r="H17">
-        <v>15.215516</v>
+        <v>8.025092000000001</v>
       </c>
       <c r="I17">
-        <v>0.8027406742265409</v>
+        <v>0.573492282847582</v>
       </c>
       <c r="J17">
-        <v>0.8027406742265409</v>
+        <v>0.573492282847582</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>45.87732766666667</v>
+        <v>26.72140366666666</v>
       </c>
       <c r="N17">
-        <v>137.631983</v>
+        <v>80.16421099999999</v>
       </c>
       <c r="O17">
-        <v>0.2679264121734788</v>
+        <v>0.1924341858224863</v>
       </c>
       <c r="P17">
-        <v>0.2679264121734788</v>
+        <v>0.1924341858224864</v>
       </c>
       <c r="Q17">
-        <v>232.6824043831365</v>
+        <v>71.48057426471244</v>
       </c>
       <c r="R17">
-        <v>2094.141639448228</v>
+        <v>643.325168382412</v>
       </c>
       <c r="S17">
-        <v>0.2150754287512365</v>
+        <v>0.1103595205252535</v>
       </c>
       <c r="T17">
-        <v>0.2150754287512365</v>
+        <v>0.1103595205252535</v>
       </c>
     </row>
   </sheetData>
